--- a/input_data/input_data_ibs.xlsx
+++ b/input_data/input_data_ibs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B503E2-6991-4783-AF39-94CF8570306B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC96E630-FC3A-4118-BAEB-14557915CBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="10" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" tabRatio="796" activeTab="3" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -26,15 +26,16 @@
     <sheet name="inflow_blocks" sheetId="22" r:id="rId11"/>
     <sheet name="price" sheetId="4" r:id="rId12"/>
     <sheet name="markets" sheetId="5" r:id="rId13"/>
-    <sheet name="market_prices" sheetId="8" r:id="rId14"/>
-    <sheet name="balance_prices" sheetId="20" r:id="rId15"/>
-    <sheet name="risk" sheetId="17" r:id="rId16"/>
-    <sheet name="scenarios" sheetId="9" r:id="rId17"/>
-    <sheet name="fixed_ts" sheetId="11" r:id="rId18"/>
-    <sheet name="eff_ts" sheetId="12" r:id="rId19"/>
-    <sheet name="constraints" sheetId="14" r:id="rId20"/>
-    <sheet name="gen_constraint" sheetId="15" r:id="rId21"/>
-    <sheet name="cap_ts" sheetId="16" r:id="rId22"/>
+    <sheet name="reserve_realisation" sheetId="23" r:id="rId14"/>
+    <sheet name="market_prices" sheetId="8" r:id="rId15"/>
+    <sheet name="balance_prices" sheetId="20" r:id="rId16"/>
+    <sheet name="risk" sheetId="17" r:id="rId17"/>
+    <sheet name="scenarios" sheetId="9" r:id="rId18"/>
+    <sheet name="fixed_ts" sheetId="11" r:id="rId19"/>
+    <sheet name="eff_ts" sheetId="12" r:id="rId20"/>
+    <sheet name="constraints" sheetId="14" r:id="rId21"/>
+    <sheet name="gen_constraint" sheetId="15" r:id="rId22"/>
+    <sheet name="cap_ts" sheetId="16" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="91">
   <si>
     <t>node</t>
   </si>
@@ -179,9 +180,6 @@
     <t>start_cost</t>
   </si>
   <si>
-    <t>realisation</t>
-  </si>
-  <si>
     <t>min_online</t>
   </si>
   <si>
@@ -321,6 +319,15 @@
   </si>
   <si>
     <t>b2,s1</t>
+  </si>
+  <si>
+    <t>reserve_product</t>
+  </si>
+  <si>
+    <t>processgroup</t>
+  </si>
+  <si>
+    <t>p1</t>
   </si>
 </sst>
 </file>
@@ -379,13 +386,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -717,168 +724,168 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>44671</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>44671.041666666664</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>44671.08333321759</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>44671.124999826388</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>44671.166666377314</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>44671.208332986113</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>44671.249999594904</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>44671.291666203702</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>44671.333332812501</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>44671.374999421299</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
+      <c r="A12" s="6"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
+      <c r="A13" s="6"/>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
+      <c r="A14" s="6"/>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
+      <c r="A15" s="6"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
+      <c r="A16" s="6"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
+      <c r="A17" s="6"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
+      <c r="A18" s="6"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
+      <c r="A19" s="6"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
+      <c r="A20" s="6"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
+      <c r="A21" s="6"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
+      <c r="A22" s="6"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
+      <c r="A23" s="6"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
+      <c r="A24" s="6"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
+      <c r="A25" s="6"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
+      <c r="A26" s="6"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
+      <c r="A27" s="6"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
+      <c r="A28" s="6"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
+      <c r="A29" s="6"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
+      <c r="A30" s="6"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
+      <c r="A31" s="6"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
+      <c r="A32" s="6"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
+      <c r="A33" s="6"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
+      <c r="A34" s="6"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
+      <c r="A35" s="6"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
+      <c r="A36" s="6"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
+      <c r="A37" s="6"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
+      <c r="A38" s="6"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
+      <c r="A39" s="6"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
+      <c r="A40" s="6"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
+      <c r="A41" s="6"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
+      <c r="A42" s="6"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
+      <c r="A43" s="6"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
+      <c r="A44" s="6"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
+      <c r="A45" s="6"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
+      <c r="A46" s="6"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
+      <c r="A47" s="6"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
+      <c r="A48" s="6"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
+      <c r="A49" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -895,7 +902,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
     <col min="3" max="4" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -904,11 +911,11 @@
         <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
@@ -918,7 +925,7 @@
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
@@ -928,7 +935,7 @@
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
@@ -938,7 +945,7 @@
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
@@ -948,7 +955,7 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666377314</v>
       </c>
@@ -958,7 +965,7 @@
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208332986113</v>
       </c>
@@ -968,7 +975,7 @@
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999594904</v>
       </c>
@@ -978,7 +985,7 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666203702</v>
       </c>
@@ -988,7 +995,7 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332812501</v>
       </c>
@@ -998,7 +1005,7 @@
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999421299</v>
       </c>
@@ -1008,98 +1015,98 @@
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="str">
+      <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="str">
+      <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="str">
+      <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="str">
+      <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="str">
+      <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="str">
+      <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="str">
+      <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="str">
+      <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="str">
+      <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="str">
+      <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="str">
+      <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="str">
+      <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="str">
+      <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="str">
+      <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
       </c>
@@ -1116,7 +1123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D7D8644-BE95-4E0B-B511-EAF8D4CF5714}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -1132,41 +1139,41 @@
         <v>26</v>
       </c>
       <c r="B1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" t="s">
         <v>83</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>85</v>
       </c>
-      <c r="D1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>86</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>87</v>
-      </c>
-      <c r="G1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>44671.041666666664</v>
       </c>
       <c r="C2">
         <v>4</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>44671.166666377314</v>
       </c>
       <c r="E2">
         <v>5</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>44671.041666666664</v>
       </c>
       <c r="G2">
@@ -1177,19 +1184,19 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>44671.08333321759</v>
       </c>
       <c r="C3">
         <v>-2</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>44671.208332986113</v>
       </c>
       <c r="E3">
         <v>-3</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>44671.08333321759</v>
       </c>
       <c r="G3">
@@ -1200,19 +1207,19 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>44671.124999826388</v>
       </c>
       <c r="C4">
         <v>-1</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>44671.249999594904</v>
       </c>
       <c r="E4">
         <v>-2</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>44671.124999826388</v>
       </c>
       <c r="G4">
@@ -1223,14 +1230,14 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>44671.166666377314</v>
       </c>
       <c r="C5">
         <v>-1</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="F5" s="7">
+      <c r="D5" s="6"/>
+      <c r="F5" s="6">
         <v>44671.166666377314</v>
       </c>
       <c r="G5">
@@ -1268,16 +1275,16 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="17" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1294,7 +1301,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1302,11 +1309,11 @@
         <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
@@ -1315,7 +1322,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
@@ -1324,7 +1331,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
@@ -1333,7 +1340,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
@@ -1342,7 +1349,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666377314</v>
       </c>
@@ -1351,7 +1358,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208332986113</v>
       </c>
@@ -1360,7 +1367,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999594904</v>
       </c>
@@ -1369,7 +1376,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666203702</v>
       </c>
@@ -1378,7 +1385,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332812501</v>
       </c>
@@ -1387,7 +1394,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999421299</v>
       </c>
@@ -1396,85 +1403,85 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="str">
+      <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="str">
+      <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="str">
+      <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="str">
+      <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="str">
+      <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="str">
+      <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="str">
+      <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="str">
+      <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="str">
+      <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="str">
+      <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="str">
+      <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="str">
+      <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="str">
+      <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="str">
+      <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
       </c>
@@ -1489,7 +1496,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1497,8 +1504,8 @@
     <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1513,47 +1520,47 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="6">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>33</v>
       </c>
       <c r="G2">
@@ -1562,45 +1569,48 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" s="6">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6">
-        <v>0</v>
-      </c>
-      <c r="K2" s="6">
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1608,6 +1618,30 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B038F4AF-A0B0-4EC8-9B10-CF7C569D1AA8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6DDD9A-EF34-4108-8532-230729E9C708}">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -1617,7 +1651,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="4" width="11.140625" customWidth="1"/>
   </cols>
@@ -1634,7 +1668,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
@@ -1646,7 +1680,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
@@ -1658,7 +1692,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
@@ -1670,7 +1704,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
@@ -1682,7 +1716,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666377314</v>
       </c>
@@ -1694,7 +1728,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208332986113</v>
       </c>
@@ -1706,7 +1740,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999594904</v>
       </c>
@@ -1718,7 +1752,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666203702</v>
       </c>
@@ -1730,7 +1764,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332812501</v>
       </c>
@@ -1742,7 +1776,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999421299</v>
       </c>
@@ -1754,85 +1788,85 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="str">
+      <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="str">
+      <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="str">
+      <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="str">
+      <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="str">
+      <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="str">
+      <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="str">
+      <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="str">
+      <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="str">
+      <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="str">
+      <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="str">
+      <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="str">
+      <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="str">
+      <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="str">
+      <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
       </c>
@@ -1843,7 +1877,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817FDE8F-BC70-48D0-8376-FB52E6946AF1}">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -1863,20 +1897,20 @@
         <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
@@ -1898,7 +1932,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
@@ -1920,7 +1954,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
@@ -1942,7 +1976,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
@@ -1964,7 +1998,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666377314</v>
       </c>
@@ -1986,7 +2020,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208332986113</v>
       </c>
@@ -2008,7 +2042,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999594904</v>
       </c>
@@ -2030,7 +2064,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666203702</v>
       </c>
@@ -2052,7 +2086,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332812501</v>
       </c>
@@ -2074,7 +2108,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999421299</v>
       </c>
@@ -2096,85 +2130,85 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="str">
+      <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="str">
+      <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="str">
+      <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="str">
+      <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="str">
+      <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="str">
+      <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="str">
+      <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="str">
+      <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="str">
+      <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="str">
+      <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="str">
+      <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="str">
+      <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="str">
+      <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="str">
+      <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
       </c>
@@ -2185,7 +2219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9314D326-256A-435C-AAE3-3517FA836EAE}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -2200,15 +2234,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2">
         <v>0.1</v>
@@ -2216,7 +2250,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2227,7 +2261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87AD413-E614-48C1-80E1-F1E8236FCBC6}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -2266,7 +2300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31679CA5-0AA2-4F6F-8223-14BF74917F04}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -2276,7 +2310,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2285,325 +2319,157 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666377314</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208332986113</v>
       </c>
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999594904</v>
       </c>
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666203702</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332812501</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999421299</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="str">
+      <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="str">
+      <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="str">
+      <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="str">
+      <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="str">
+      <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="str">
+      <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="str">
+      <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="str">
+      <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="str">
+      <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="str">
+      <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="str">
+      <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="str">
+      <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="str">
+      <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="str">
+      <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD670E02-665B-45B8-BC4E-9596D2C1BC55}">
-  <dimension ref="A1:A25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
-        <v>44671</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
-        <v>44671.041666666664</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v>44671.08333321759</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v>44671.124999826388</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v>44671.166666377314</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
-        <v>44671.208332986113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v>44671.249999594904</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v>44671.291666203702</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v>44671.333332812501</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v>44671.374999421299</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="str">
-        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="str">
-        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="str">
-        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="str">
-        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="str">
-        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="str">
-        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="str">
-        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="str">
-        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="str">
-        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="str">
-        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="str">
-        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="str">
-        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="str">
-        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="str">
-        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2658,50 +2524,50 @@
         <v>5</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="6">
-        <v>0</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6">
-        <v>0</v>
-      </c>
-      <c r="K2" s="6">
-        <v>0</v>
-      </c>
-      <c r="L2" s="6">
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2709,116 +2575,116 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="6">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6">
-        <v>0</v>
-      </c>
-      <c r="K3" s="6">
-        <v>0</v>
-      </c>
-      <c r="L3" s="6">
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="6">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6">
+        <v>72</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
         <v>1</v>
       </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0</v>
-      </c>
-      <c r="K4" s="6">
-        <v>0</v>
-      </c>
-      <c r="L4" s="6">
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2826,6 +2692,174 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD670E02-665B-45B8-BC4E-9596D2C1BC55}">
+  <dimension ref="A1:A25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671.041666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44671.08333321759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>44671.124999826388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>44671.166666377314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>44671.208332986113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>44671.249999594904</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v>44671.291666203702</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v>44671.333332812501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v>44671.374999421299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="str">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="str">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="str">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="str">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="str">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="str">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="str">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="str">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="str">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="str">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="str">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="str">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="str">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="str">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704FC51-737E-45F9-9A9E-85A96AFE5439}">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -2845,21 +2879,21 @@
         <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
         <v>71</v>
-      </c>
-      <c r="D1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2879,7 +2913,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12AB76-2BDA-4ACA-A128-8CFB9FB6C8F8}">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -2889,7 +2923,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2897,26 +2931,26 @@
         <v>26</v>
       </c>
       <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
         <v>77</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>78</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>79</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>80</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>81</v>
       </c>
-      <c r="G1" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
@@ -2940,7 +2974,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
@@ -2964,7 +2998,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
@@ -2988,7 +3022,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
@@ -3012,7 +3046,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666377314</v>
       </c>
@@ -3036,7 +3070,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208332986113</v>
       </c>
@@ -3060,7 +3094,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999594904</v>
       </c>
@@ -3084,7 +3118,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666203702</v>
       </c>
@@ -3108,7 +3142,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332812501</v>
       </c>
@@ -3132,7 +3166,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999421299</v>
       </c>
@@ -3156,85 +3190,85 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="str">
+      <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="str">
+      <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="str">
+      <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="str">
+      <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="str">
+      <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="str">
+      <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="str">
+      <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="str">
+      <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="str">
+      <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="str">
+      <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="str">
+      <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="str">
+      <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="str">
+      <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="str">
+      <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
       </c>
@@ -3245,7 +3279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEDBA5-B0F3-4E9D-9367-08D5F5FA8AEA}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -3255,7 +3289,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3265,145 +3299,145 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666377314</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208332986113</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999594904</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666203702</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332812501</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999421299</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="str">
+      <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="str">
+      <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="str">
+      <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="str">
+      <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="str">
+      <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="str">
+      <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="str">
+      <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="str">
+      <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="str">
+      <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="str">
+      <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="str">
+      <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="str">
+      <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="str">
+      <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="str">
+      <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
       </c>
@@ -3444,7 +3478,7 @@
         <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
@@ -3468,208 +3502,208 @@
         <v>40</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="M1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="O1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="6">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6">
-        <v>0</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
         <v>1</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>0.75</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <v>0.3</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <v>1</v>
       </c>
-      <c r="J2" s="6">
-        <v>0</v>
-      </c>
-      <c r="K2" s="6">
-        <v>0</v>
-      </c>
-      <c r="L2" s="6">
-        <v>0</v>
-      </c>
-      <c r="M2" s="6">
-        <v>0</v>
-      </c>
-      <c r="N2" s="6">
-        <v>0</v>
-      </c>
-      <c r="O2" s="6">
-        <v>0</v>
-      </c>
-      <c r="P2" s="6">
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="6">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6">
+        <v>73</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
         <v>1</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>3</v>
       </c>
-      <c r="H3" s="6">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6">
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
         <v>1</v>
       </c>
-      <c r="J3" s="6">
-        <v>0</v>
-      </c>
-      <c r="K3" s="6">
-        <v>0</v>
-      </c>
-      <c r="L3" s="6">
-        <v>0</v>
-      </c>
-      <c r="M3" s="6">
-        <v>0</v>
-      </c>
-      <c r="N3" s="6">
-        <v>0</v>
-      </c>
-      <c r="O3" s="6">
-        <v>0</v>
-      </c>
-      <c r="P3" s="6">
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3678,10 +3712,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6007B83A-95ED-43FB-AC05-C8A15D3323E5}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3691,10 +3725,32 @@
         <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>66</v>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3868,7 +3924,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -3888,7 +3944,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>22</v>
@@ -3914,13 +3970,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -3954,7 +4010,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -3963,145 +4019,145 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666377314</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208332986113</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999594904</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666203702</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332812501</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999421299</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="str">
+      <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="str">
+      <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="str">
+      <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="str">
+      <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="str">
+      <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="str">
+      <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="str">
+      <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="str">
+      <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="str">
+      <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="str">
+      <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="str">
+      <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="str">
+      <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="str">
+      <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="str">
+      <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
       </c>
@@ -4126,7 +4182,7 @@
         <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -4144,7 +4200,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
     <col min="6" max="6" width="23.140625" customWidth="1"/>
     <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -4156,147 +4212,147 @@
       <c r="F1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="F2" s="6"/>
+      <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666377314</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208332986113</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999594904</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666203702</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332812501</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999421299</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="str">
+      <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="str">
+      <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="str">
+      <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="str">
+      <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="str">
+      <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="str">
+      <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="str">
+      <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="str">
+      <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="str">
+      <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="str">
+      <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="str">
+      <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="str">
+      <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="str">
+      <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="str">
+      <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
       </c>
